--- a/Profiles.xlsx
+++ b/Profiles.xlsx
@@ -490,6 +490,27 @@
       </c>
       <c r="F3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Person2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>a@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9123456789</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
